--- a/biology/Botanique/Parc_de_Holm/Parc_de_Holm.xlsx
+++ b/biology/Botanique/Parc_de_Holm/Parc_de_Holm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Holm (estonien : Holmi park) est un parc du quartier Ülejõe de Tartu en Estonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc porte le nom de l'île Holm, de la rivière Emajõgi.
 Le parc est situé sur la rive gauche de la rivière Emajõgi, près d'Atlantise maja, entre le pont Kaarsild et le pont Rahu sild.
